--- a/docs/mcode/shr-core-AsNeededIndicator-extension.xlsx
+++ b/docs/mcode/shr-core-AsNeededIndicator-extension.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$6</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="63">
   <si>
     <t>Path</t>
   </si>
@@ -188,26 +188,6 @@
     <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-AsNeededIndicator-extension"/&gt;</t>
   </si>
   <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>boolean {[]} {[]}
-CodeableConcept {[]} {[]}</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Extension.valueCodeableConcept</t>
   </si>
   <si>
@@ -215,10 +195,19 @@
 </t>
   </si>
   <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
+  </si>
+  <si>
     <t>example</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
   </si>
 </sst>
 </file>
@@ -367,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ7"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -966,32 +955,32 @@
         <v>36</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X6" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="X6" s="2"/>
       <c r="Y6" t="s" s="2">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AB6" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="AC6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>41</v>
@@ -1003,103 +992,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" hidden="true">
-      <c r="A7" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="X7" s="2"/>
-      <c r="Y7" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="Z7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AI7">
+  <autoFilter ref="A1:AI6">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1109,7 +1003,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI6">
+  <conditionalFormatting sqref="A2:AI5">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
